--- a/data/prices.xlsx
+++ b/data/prices.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Client\C$\Users\davidallen\Documents\PAMGMT\economics\data\ism-manufacturing\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Client\C$\Users\davidallen\OneDrive\PAMGMT\Economics\data\ism-manufacturing\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -101,16 +101,6 @@
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
     <main first="bloomberg.rtd">
-      <tp t="s">
-        <v>Last Price</v>
-        <stp/>
-        <stp>##V3_BFIELDINFOV12</stp>
-        <stp>[headline-index.xlsx]Sheet1!R5C2</stp>
-        <stp>PX_LAST</stp>
-        <tr r="B5" s="1"/>
-      </tp>
-    </main>
-    <main first="bloomberg.rtd">
       <tp>
         <v>17563</v>
         <stp/>
@@ -123,8 +113,16 @@
         <stp>Dir=V</stp>
         <stp>Per=M</stp>
         <stp>Dts=S</stp>
-        <stp>cols=2;rows=864</stp>
+        <stp>cols=2;rows=869</stp>
         <tr r="A7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>Last Price</v>
+        <stp/>
+        <stp>##V3_BFIELDINFOV12</stp>
+        <stp>[prices.xlsx]Sheet1!R5C2</stp>
+        <stp>PX_LAST</stp>
+        <tr r="B5" s="1"/>
       </tp>
     </main>
   </volType>
@@ -394,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B870"/>
+  <dimension ref="A1:B875"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A868" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
@@ -444,7 +442,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <f>_xll.BDH(B$4,B$6,$B1,$B2,"Dir=V","Per=M","Dts=S","cols=2;rows=864")</f>
+        <f>_xll.BDH(B$4,B$6,$B1,$B2,"Dir=V","Per=M","Dts=S","cols=2;rows=869")</f>
         <v>17563</v>
       </c>
       <c r="B7">
@@ -7353,6 +7351,46 @@
       </c>
       <c r="B870">
         <v>51.7</v>
+      </c>
+    </row>
+    <row r="871" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A871" s="1">
+        <v>43861</v>
+      </c>
+      <c r="B871">
+        <v>53.3</v>
+      </c>
+    </row>
+    <row r="872" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A872" s="1">
+        <v>43890</v>
+      </c>
+      <c r="B872">
+        <v>45.9</v>
+      </c>
+    </row>
+    <row r="873" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A873" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B873">
+        <v>37.4</v>
+      </c>
+    </row>
+    <row r="874" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A874" s="1">
+        <v>43951</v>
+      </c>
+      <c r="B874">
+        <v>35.299999999999997</v>
+      </c>
+    </row>
+    <row r="875" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A875" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B875">
+        <v>40.799999999999997</v>
       </c>
     </row>
   </sheetData>
